--- a/files/etroncomparison.xlsx
+++ b/files/etroncomparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\electrichasgoneaudi.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B503F69-1A95-4A34-9D5D-63110E24144F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C20719-3890-4083-803F-B87BFF945DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8CA9E4EF-F9B0-4607-A261-6883CB48E330}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8CA9E4EF-F9B0-4607-A261-6883CB48E330}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="135">
   <si>
     <t>Metallic lakk</t>
   </si>
@@ -446,6 +446,39 @@
   </si>
   <si>
     <t>9TF</t>
+  </si>
+  <si>
+    <t>Adaptive Cruise Assist</t>
+  </si>
+  <si>
+    <t>Included in PG9</t>
+  </si>
+  <si>
+    <t>Included in PY7</t>
+  </si>
+  <si>
+    <t>Sonos</t>
+  </si>
+  <si>
+    <t>Pre sense front</t>
+  </si>
+  <si>
+    <t>Pre sense rear</t>
+  </si>
+  <si>
+    <t>Side Assist</t>
+  </si>
+  <si>
+    <t>Cross traffist assist rear</t>
+  </si>
+  <si>
+    <t>Assistentpakken By</t>
+  </si>
+  <si>
+    <t>PCM</t>
+  </si>
+  <si>
+    <t>Included in PCM</t>
   </si>
 </sst>
 </file>
@@ -1021,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506FF373-BB3D-48E4-943A-D22D5B42837E}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F62" sqref="B1:F62"/>
+      <selection activeCell="F69" sqref="B1:F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1066,7 @@
     <col min="2" max="2" width="88.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1284,839 +1317,868 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="34">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="35">
+        <v>12920</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="39"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="33">
-        <v>0</v>
-      </c>
-      <c r="E18" s="30" t="s">
+      <c r="D20" s="33">
+        <v>0</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="34">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="26">
-        <v>2870</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="35">
-        <v>1320</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="26">
-        <v>1260</v>
+      <c r="F20" s="28">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="9" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D21" s="34">
-        <v>7390</v>
+        <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="F21" s="26">
-        <v>5730</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D22" s="35">
-        <v>18320</v>
+        <v>1320</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F22" s="26">
-        <v>15000</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="34">
+        <v>7390</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="26">
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="35">
+        <v>18320</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="26">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="33">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="D25" s="33">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F25" s="26">
         <v>4580</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="33">
-        <v>0</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+      <c r="D26" s="33">
+        <v>0</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C27" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D27" s="37">
         <v>2950</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="36" t="s">
+      <c r="E27" s="36"/>
+      <c r="F27" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C28" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="34">
-        <v>0</v>
-      </c>
-      <c r="E26" s="36" t="s">
+      <c r="D28" s="34">
+        <v>0</v>
+      </c>
+      <c r="E28" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="F28" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="38">
-        <v>0</v>
-      </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="39"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+      <c r="D29" s="38">
+        <v>0</v>
+      </c>
+      <c r="E29" s="36"/>
+      <c r="F29" s="39"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D30" s="34">
         <v>11000</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E30" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F30" s="39">
         <v>21070</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="25" t="s">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="39">
-        <v>4130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="38">
-        <v>0</v>
-      </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="28">
-        <v>0</v>
-      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="38">
-        <v>0</v>
-      </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="28">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="39">
+        <v>4130</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="37"/>
+        <v>24</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="38">
+        <v>0</v>
+      </c>
       <c r="E33" s="36"/>
       <c r="F33" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="38">
+        <v>0</v>
+      </c>
+      <c r="E34" s="36"/>
+      <c r="F34" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="36" t="s">
         <v>52</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="26"/>
       <c r="E36" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="39">
-        <v>4920</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="35">
-        <v>3740</v>
-      </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="39">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F36" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="43">
-        <v>33960</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="26">
-        <v>44590</v>
+        <v>75</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="39">
+        <v>4920</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" s="26">
-        <v>1150</v>
+        <v>98</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="35">
+        <v>3740</v>
+      </c>
+      <c r="E39" s="36"/>
+      <c r="F39" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="43">
+        <v>33960</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="26">
+        <v>44590</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="26">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="44">
-        <v>0</v>
-      </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
+      <c r="D42" s="44">
+        <v>0</v>
+      </c>
+      <c r="E42" s="36"/>
+      <c r="F42" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="44">
-        <v>0</v>
-      </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-    </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="35">
-        <v>17830</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" s="26">
-        <v>12940</v>
+      <c r="D43" s="44">
+        <v>0</v>
+      </c>
+      <c r="E43" s="36"/>
+      <c r="F43" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
       <c r="F44" s="25"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="35">
+        <v>17830</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="26">
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D47" s="35">
         <v>6160</v>
       </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="39">
+      <c r="E47" s="36"/>
+      <c r="F47" s="39">
         <v>1380</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="37">
+      <c r="D48" s="37">
         <v>6140</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="26">
-        <v>0</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F47" s="26">
-        <v>5620</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="F48" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E48" s="36"/>
+      <c r="F48" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="26">
+        <v>0</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" s="26">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="26"/>
+      <c r="E50" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="30" t="s">
+      <c r="C51" s="5"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
+      <c r="F51" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="39"/>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="25" t="s">
+      <c r="D52" s="40"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="39"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="35">
+      <c r="D54" s="35">
         <v>14590</v>
       </c>
-      <c r="E52" s="36"/>
-      <c r="F52" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="11" t="s">
+      <c r="E54" s="36"/>
+      <c r="F54" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="38">
-        <v>0</v>
-      </c>
-      <c r="E53" s="36"/>
-      <c r="F53" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="11" t="s">
+      <c r="D56" s="38">
+        <v>0</v>
+      </c>
+      <c r="E56" s="36"/>
+      <c r="F56" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="38">
-        <v>0</v>
-      </c>
-      <c r="E54" s="36" t="s">
+      <c r="D57" s="38">
+        <v>0</v>
+      </c>
+      <c r="E57" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
+      <c r="F57" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="40"/>
-      <c r="E55" s="36" t="s">
+      <c r="D58" s="40"/>
+      <c r="E58" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="F55" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="25" t="s">
+      <c r="F58" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="34">
-        <v>0</v>
-      </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="39"/>
-    </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B58" s="11" t="s">
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+    </row>
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B60" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="34"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="39"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="7" t="s">
+      <c r="D60" s="34"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="39"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="34">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F61" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="39"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" s="37">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="39"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="37">
+        <v>0</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="39"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="39"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="5" t="s">
+      <c r="C66" s="5"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F59" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="9" t="s">
+      <c r="F66" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="34">
-        <v>0</v>
-      </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="26"/>
-    </row>
-    <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="47">
-        <f>SUM(D2:D60)-D62</f>
+      <c r="D67" s="34">
+        <v>0</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="26"/>
+    </row>
+    <row r="68" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="47">
+        <f>SUM(D2:D67)-D69</f>
         <v>758790</v>
       </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="47">
-        <f>SUM(F2:F60)</f>
+      <c r="E68" s="48"/>
+      <c r="F68" s="47">
+        <f>SUM(F2:F67)</f>
         <v>758800</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="37">
-        <f>D52+D45+D43+D38+D22+D20+D46+D37+D25</f>
-        <v>105010</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="26"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="17"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="17"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="17"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="17"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="17"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="17"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="17"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="37">
+        <f>D54+D47+D45+D40+D24+D22+D48+D39+D27+D18</f>
+        <v>117930</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="26"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="6"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="10"/>
       <c r="E70" s="17"/>
       <c r="F70" s="6"/>
       <c r="G70" s="17"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="6"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="10"/>
       <c r="E71" s="17"/>
       <c r="F71" s="6"/>
       <c r="G71" s="17"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="6"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="10"/>
       <c r="E72" s="17"/>
       <c r="F72" s="6"/>
       <c r="G72" s="17"/>
     </row>
-    <row r="73" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="18"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="6"/>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="10"/>
       <c r="E73" s="17"/>
       <c r="F73" s="6"/>
       <c r="G73" s="17"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="20"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="10"/>
       <c r="E74" s="17"/>
       <c r="F74" s="6"/>
       <c r="G74" s="17"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="16"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="22"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="10"/>
       <c r="E75" s="17"/>
       <c r="F75" s="6"/>
       <c r="G75" s="17"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="16"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="22"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="10"/>
       <c r="E76" s="17"/>
       <c r="F76" s="6"/>
       <c r="G76" s="17"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="16"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="22"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="6"/>
       <c r="E77" s="17"/>
       <c r="F77" s="6"/>
       <c r="G77" s="17"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="20"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="6"/>
       <c r="E78" s="17"/>
       <c r="F78" s="6"/>
       <c r="G78" s="17"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="23"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="10"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="6"/>
       <c r="E79" s="17"/>
       <c r="F79" s="6"/>
       <c r="G79" s="17"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="17"/>
+    <row r="80" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B80" s="18"/>
       <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
+      <c r="D80" s="6"/>
       <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
+      <c r="F80" s="6"/>
       <c r="G80" s="17"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="23"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="10"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="20"/>
       <c r="E81" s="17"/>
       <c r="F81" s="6"/>
       <c r="G81" s="17"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="23"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="10"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="22"/>
       <c r="E82" s="17"/>
       <c r="F82" s="6"/>
       <c r="G82" s="17"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="10"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="22"/>
       <c r="E83" s="17"/>
       <c r="F83" s="6"/>
       <c r="G83" s="17"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="23"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="10"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="22"/>
       <c r="E84" s="17"/>
       <c r="F84" s="6"/>
       <c r="G84" s="17"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="10"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="20"/>
       <c r="E85" s="17"/>
       <c r="F85" s="6"/>
       <c r="G85" s="17"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="16"/>
+      <c r="B86" s="23"/>
       <c r="C86" s="16"/>
       <c r="D86" s="10"/>
       <c r="E86" s="17"/>
@@ -2124,39 +2186,95 @@
       <c r="G86" s="17"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="23"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="10"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
       <c r="E87" s="17"/>
-      <c r="F87" s="6"/>
+      <c r="F87" s="17"/>
       <c r="G87" s="17"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="20"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="10"/>
       <c r="E88" s="17"/>
       <c r="F88" s="6"/>
       <c r="G88" s="17"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="10"/>
       <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
+      <c r="F89" s="6"/>
       <c r="G89" s="17"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="6"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="10"/>
       <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
+      <c r="F90" s="6"/>
       <c r="G90" s="17"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D91" s="13"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="17"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="17"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="17"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="23"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="17"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="17"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D98" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
